--- a/results/MVSE/freebase/MVSE_freebase<l10>AllRes_64.55.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l10>AllRes_64.55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S15"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1539,6 +1539,144 @@
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>128</v>
+      </c>
+      <c r="H16" t="n">
+        <v>500</v>
+      </c>
+      <c r="I16" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>62.04</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-18_16_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>128</v>
+      </c>
+      <c r="H17" t="n">
+        <v>500</v>
+      </c>
+      <c r="I17" t="n">
+        <v>50</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O17" t="n">
+        <v>61.59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-17_20_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/MVSE/freebase/MVSE_freebase<l10>AllRes_64.55.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l10>AllRes_64.55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,7 +600,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -819,7 +819,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -843,14 +843,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -865,34 +865,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.24</v>
+        <v>2.04</v>
       </c>
       <c r="O6" t="n">
         <v>63.88</v>
       </c>
       <c r="P6" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.43</v>
+        <v>0.33</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_06_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-09_44_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -916,14 +916,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -938,34 +938,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>3</v>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>2.04</v>
+        <v>2.24</v>
       </c>
       <c r="O7" t="n">
         <v>63.88</v>
       </c>
       <c r="P7" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-09_44_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_06_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -977,11 +977,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -989,14 +985,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1011,34 +1007,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="O8" t="n">
-        <v>63.46</v>
+        <v>63.69</v>
       </c>
       <c r="P8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_52_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_01_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1069,7 +1065,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1089,20 +1085,20 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>2.11</v>
+        <v>2.24</v>
       </c>
       <c r="O9" t="n">
-        <v>63.38</v>
+        <v>63.46</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.18</v>
+        <v>0.67</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_36_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_52_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="n">
@@ -1111,7 +1107,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1123,7 +1119,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1138,7 +1138,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1158,29 +1158,29 @@
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.98</v>
+        <v>2.11</v>
       </c>
       <c r="O10" t="n">
-        <v>63.36</v>
+        <v>63.38</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-00_30_47', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_36_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1192,11 +1192,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1211,7 +1207,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1231,20 +1227,20 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="O11" t="n">
-        <v>63.14</v>
+        <v>63.36</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_13_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="n">
@@ -1253,7 +1249,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1280,7 +1276,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1300,29 +1296,29 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="O12" t="n">
-        <v>63.06</v>
+        <v>63.21</v>
       </c>
       <c r="P12" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.2</v>
+        <v>0.53</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-01_55_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_11_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1334,11 +1330,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1353,7 +1345,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1372,30 +1364,30 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="O13" t="n">
-        <v>62.9</v>
+        <v>63.21</v>
       </c>
       <c r="P13" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_31_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_20_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1407,11 +1399,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1426,7 +1414,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1443,32 +1431,32 @@
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="O14" t="n">
-        <v>62.77</v>
+        <v>63.21</v>
       </c>
       <c r="P14" t="n">
-        <v>0.11</v>
+        <v>0.03</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_58_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_30_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1492,7 +1480,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1514,34 +1502,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>2.3</v>
+        <v>2.11</v>
       </c>
       <c r="O15" t="n">
-        <v>62.31</v>
+        <v>63.14</v>
       </c>
       <c r="P15" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.43</v>
+        <v>0.15</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_46_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1553,7 +1541,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1568,7 +1560,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1584,33 +1576,33 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2.13</v>
+        <v>2.2</v>
       </c>
       <c r="O16" t="n">
-        <v>62.04</v>
+        <v>62.9</v>
       </c>
       <c r="P16" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.55</v>
+        <v>0.42</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-18_16_39', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_31_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1622,7 +1614,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1630,14 +1626,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1652,30 +1648,103 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>2.27</v>
+        <v>2.06</v>
       </c>
       <c r="O17" t="n">
-        <v>61.59</v>
+        <v>62.77</v>
       </c>
       <c r="P17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.88</v>
+        <v>0.63</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_17-17_20_01', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_58_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>50</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O18" t="n">
+        <v>62.31</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_46_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/freebase/MVSE_freebase<l10>AllRes_64.55.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l10>AllRes_64.55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,7 +746,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -758,11 +758,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -777,7 +773,7 @@
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -799,27 +795,27 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="O5" t="n">
-        <v>63.9</v>
+        <v>64.17</v>
       </c>
       <c r="P5" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q5" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q5" t="n">
-        <v>0.42</v>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-07_59_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_52_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -831,11 +827,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -850,7 +842,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -872,27 +864,27 @@
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.04</v>
+        <v>1.95</v>
       </c>
       <c r="O6" t="n">
-        <v>63.88</v>
+        <v>63.99</v>
       </c>
       <c r="P6" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.33</v>
+        <v>0.6</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-09_44_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_44_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -916,14 +908,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -938,34 +930,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>3</v>
+      </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>2.24</v>
+        <v>2.11</v>
       </c>
       <c r="O7" t="n">
-        <v>63.88</v>
+        <v>63.9</v>
       </c>
       <c r="P7" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_06_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-07_59_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -977,7 +969,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -992,7 +988,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1008,33 +1004,33 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="O8" t="n">
-        <v>63.69</v>
+        <v>63.88</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.3</v>
+        <v>0.33</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_01_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-09_44_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1065,7 +1061,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1088,26 +1084,26 @@
         <v>2.24</v>
       </c>
       <c r="O9" t="n">
-        <v>63.46</v>
+        <v>63.88</v>
       </c>
       <c r="P9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_52_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_06_46', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1119,11 +1115,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1131,14 +1123,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1153,34 +1145,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="O10" t="n">
-        <v>63.38</v>
+        <v>63.69</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.18</v>
+        <v>0.3</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_36_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_01_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1200,14 +1192,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1222,34 +1214,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="O11" t="n">
-        <v>63.36</v>
+        <v>63.56</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.36</v>
+        <v>0.29</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_13_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_57_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1261,7 +1253,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1276,7 +1272,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1296,29 +1292,29 @@
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.93</v>
+        <v>2.24</v>
       </c>
       <c r="O12" t="n">
-        <v>63.21</v>
+        <v>63.46</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.53</v>
+        <v>0.67</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_11_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_52_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1330,7 +1326,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1338,14 +1338,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1360,34 +1360,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="O13" t="n">
-        <v>63.21</v>
+        <v>63.38</v>
       </c>
       <c r="P13" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.53</v>
+        <v>0.18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_20_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_36_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="n">
+        <v>8192</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1431,32 +1431,32 @@
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O14" t="n">
-        <v>63.21</v>
+        <v>63.36</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.53</v>
+        <v>0.36</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_30_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 0, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_13_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1468,11 +1468,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1487,7 +1483,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1507,20 +1503,20 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>2.11</v>
+        <v>1.93</v>
       </c>
       <c r="O15" t="n">
-        <v>63.14</v>
+        <v>63.21</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.15</v>
+        <v>0.53</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_11_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="n">
@@ -1529,7 +1525,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1553,14 +1549,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1575,34 +1571,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="O16" t="n">
-        <v>62.9</v>
+        <v>63.14</v>
       </c>
       <c r="P16" t="n">
-        <v>0.13</v>
+        <v>0.05</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.42</v>
+        <v>0.15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_31_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1614,11 +1610,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1633,7 +1625,7 @@
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1653,29 +1645,29 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="O17" t="n">
-        <v>62.77</v>
+        <v>63.02</v>
       </c>
       <c r="P17" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_58_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_07_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1706,7 +1698,7 @@
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1728,23 +1720,238 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O18" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_31_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>200</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O19" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_58_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="O20" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_03_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
         <v>2.3</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O21" t="n">
         <v>62.31</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P21" t="n">
         <v>0.08</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q21" t="n">
         <v>0.43</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_46_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/freebase/MVSE_freebase<l10>AllRes_64.55.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l10>AllRes_64.55.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1146,33 +1146,33 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="O10" t="n">
-        <v>63.69</v>
+        <v>63.76</v>
       </c>
       <c r="P10" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.3</v>
+        <v>0.47</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_01_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_15_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1221,27 +1221,27 @@
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="O11" t="n">
-        <v>63.56</v>
+        <v>63.71</v>
       </c>
       <c r="P11" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.29</v>
+        <v>0.41</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_57_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_58_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1253,11 +1253,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1265,14 +1261,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1287,34 +1283,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="O12" t="n">
-        <v>63.46</v>
+        <v>63.69</v>
       </c>
       <c r="P12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.67</v>
+        <v>0.3</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_52_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_01_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1326,11 +1322,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1338,14 +1330,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1360,34 +1352,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="O13" t="n">
-        <v>63.38</v>
+        <v>63.56</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.18</v>
+        <v>0.29</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_36_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v>8192</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_57_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1399,7 +1391,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1414,7 +1410,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1434,29 +1430,29 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="O14" t="n">
-        <v>63.36</v>
+        <v>63.46</v>
       </c>
       <c r="P14" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.36</v>
+        <v>0.67</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_13_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-01_52_03', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1468,7 +1464,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1483,7 +1483,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I15" t="n">
         <v>50</v>
@@ -1503,29 +1503,29 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="O15" t="n">
-        <v>63.21</v>
+        <v>63.38</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.53</v>
+        <v>0.18</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_11_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_36_48', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="n">
-        <v>4096</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1537,11 +1537,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1556,7 +1552,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1576,20 +1572,20 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2.11</v>
+        <v>1.98</v>
       </c>
       <c r="O16" t="n">
-        <v>63.14</v>
+        <v>63.36</v>
       </c>
       <c r="P16" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.15</v>
+        <v>0.36</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-06_13_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="n">
@@ -1598,7 +1594,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1625,7 +1621,7 @@
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1645,20 +1641,20 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O17" t="n">
-        <v>63.02</v>
+        <v>63.35</v>
       </c>
       <c r="P17" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.22</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_07_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_55_34', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="n">
@@ -1667,7 +1663,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1679,11 +1675,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1691,14 +1683,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1713,34 +1705,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="O18" t="n">
-        <v>62.9</v>
+        <v>63.21</v>
       </c>
       <c r="P18" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_31_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_11_04', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1752,11 +1744,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1764,14 +1752,14 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>128</v>
       </c>
       <c r="H19" t="n">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="I19" t="n">
         <v>50</v>
@@ -1786,34 +1774,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="O19" t="n">
-        <v>62.77</v>
+        <v>63.16</v>
       </c>
       <c r="P19" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.63</v>
+        <v>0.34</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_58_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_37_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1825,7 +1813,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1840,7 +1832,7 @@
         <v>128</v>
       </c>
       <c r="H20" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I20" t="n">
         <v>50</v>
@@ -1860,29 +1852,29 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
       </c>
       <c r="O20" t="n">
-        <v>62.7</v>
+        <v>63.14</v>
       </c>
       <c r="P20" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.72</v>
+        <v>0.15</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_03_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_12_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S20" t="n">
-        <v>8192</v>
+        <v>4096</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1894,11 +1886,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1906,14 +1894,14 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G21" t="n">
         <v>128</v>
       </c>
       <c r="H21" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I21" t="n">
         <v>50</v>
@@ -1928,30 +1916,318 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="O21" t="n">
-        <v>62.31</v>
+        <v>63.02</v>
       </c>
       <c r="P21" t="n">
         <v>0.08</v>
       </c>
       <c r="Q21" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_07_36', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>128</v>
+      </c>
+      <c r="H22" t="n">
+        <v>200</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_31_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>128</v>
+      </c>
+      <c r="H23" t="n">
+        <v>200</v>
+      </c>
+      <c r="I23" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="O23" t="n">
+        <v>62.77</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-00_58_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>128</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="O24" t="n">
+        <v>62.7</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_03_25', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 8192, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="n">
+        <v>8192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>freebase</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="O25" t="n">
+        <v>62.31</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Q25" t="n">
         <v>0.43</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_46_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/freebase/MVSE_freebase<l10>AllRes_64.55.xlsx
+++ b/results/MVSE/freebase/MVSE_freebase<l10>AllRes_64.55.xlsx
@@ -573,7 +573,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
@@ -669,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-08_51_59', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -742,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-03_38_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -758,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -811,7 +821,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-08_52_53', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -827,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -880,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-09_44_35', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -953,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-07_59_11', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1026,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-09_44_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1076,7 +1098,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
@@ -1115,7 +1139,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1168,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_15_00', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1184,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1237,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-01_58_56', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1253,7 +1289,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1306,7 +1346,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_01_31', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1322,7 +1364,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1375,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-07_57_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1425,7 +1473,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>2</v>
+      </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
@@ -1498,7 +1548,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>2</v>
+      </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
@@ -1537,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1567,7 +1623,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>2</v>
+      </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
@@ -1606,7 +1664,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1636,7 +1698,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
@@ -1675,7 +1739,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1705,7 +1773,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
@@ -1744,7 +1814,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1797,7 +1871,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-02_37_07', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1847,7 +1923,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
@@ -1886,7 +1964,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -1916,7 +1998,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
@@ -2012,7 +2096,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-04_31_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2062,7 +2148,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
@@ -2101,7 +2189,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>freebase</t>
@@ -2131,7 +2223,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>2</v>
+      </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
@@ -2227,7 +2321,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_16-02_46_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'freebase', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm', 'mwm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
